--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\eclipse-workspace\QALegendBilling\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DC2EE2-FA27-4349-8385-DC9F46B1E09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463C299C-F384-4606-B9DB-F5CD86495418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="LoginPageValidCredentials" sheetId="4" r:id="rId2"/>
     <sheet name="UserPageData" sheetId="6" r:id="rId3"/>
-    <sheet name="Table" sheetId="7" r:id="rId4"/>
-    <sheet name="UserManagementDropdowns" sheetId="5" r:id="rId5"/>
-    <sheet name="LoginPageDataProvider" sheetId="2" r:id="rId6"/>
-    <sheet name="ResetPage" sheetId="3" r:id="rId7"/>
+    <sheet name="SCMCreds" sheetId="8" r:id="rId4"/>
+    <sheet name="Table" sheetId="7" r:id="rId5"/>
+    <sheet name="UserManagementDropdowns" sheetId="5" r:id="rId6"/>
+    <sheet name="LoginPageDataProvider" sheetId="2" r:id="rId7"/>
+    <sheet name="ResetPage" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>username</t>
   </si>
@@ -97,6 +98,9 @@
   </si>
   <si>
     <t>No matching records found</t>
+  </si>
+  <si>
+    <t>PO 45445, NY, 27756</t>
   </si>
 </sst>
 </file>
@@ -508,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DF0A2C-5EDE-492D-BE3C-75569197C948}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -538,6 +542,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668C9FE4-547A-47B6-B95E-4E578994A5B0}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F98123A-DD3D-4FC3-8B58-C5B66C4A6904}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -551,7 +593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1103E8C-2193-4517-8F2A-7188EE1665C8}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -584,7 +626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5C2C2E-B1C0-4ABF-A145-A602097F9F24}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -632,7 +674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF87197-6395-4798-AB31-A43BDF129F3B}">
   <dimension ref="A1:A2"/>
   <sheetViews>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\eclipse-workspace\QALegendBilling\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463C299C-F384-4606-B9DB-F5CD86495418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7AC440-6630-47D7-B0A3-A0EC02332E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4704" yWindow="1848" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="LoginPageValidCredentials" sheetId="4" r:id="rId2"/>
     <sheet name="UserPageData" sheetId="6" r:id="rId3"/>
     <sheet name="SCMCreds" sheetId="8" r:id="rId4"/>
-    <sheet name="Table" sheetId="7" r:id="rId5"/>
-    <sheet name="UserManagementDropdowns" sheetId="5" r:id="rId6"/>
-    <sheet name="LoginPageDataProvider" sheetId="2" r:id="rId7"/>
-    <sheet name="ResetPage" sheetId="3" r:id="rId8"/>
+    <sheet name="Roles" sheetId="9" r:id="rId5"/>
+    <sheet name="Table" sheetId="7" r:id="rId6"/>
+    <sheet name="UserManagementDropdowns" sheetId="5" r:id="rId7"/>
+    <sheet name="LoginPageDataProvider" sheetId="2" r:id="rId8"/>
+    <sheet name="ResetPage" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>username</t>
   </si>
@@ -101,6 +102,9 @@
   </si>
   <si>
     <t>PO 45445, NY, 27756</t>
+  </si>
+  <si>
+    <t>Edit Role</t>
   </si>
 </sst>
 </file>
@@ -545,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668C9FE4-547A-47B6-B95E-4E578994A5B0}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -580,6 +584,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C83D66-1701-4D42-A84B-CBD203CDC9C8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F98123A-DD3D-4FC3-8B58-C5B66C4A6904}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -593,7 +620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1103E8C-2193-4517-8F2A-7188EE1665C8}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -626,7 +653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5C2C2E-B1C0-4ABF-A145-A602097F9F24}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -674,7 +701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF87197-6395-4798-AB31-A43BDF129F3B}">
   <dimension ref="A1:A2"/>
   <sheetViews>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\eclipse-workspace\QALegendBilling\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7AC440-6630-47D7-B0A3-A0EC02332E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DE223D-11EE-40DF-BBAE-CDEC62934B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4704" yWindow="1848" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>Userloginname</t>
   </si>
   <si>
-    <t>Boney Jacob</t>
-  </si>
-  <si>
     <t>ErrorMessage</t>
   </si>
   <si>
@@ -83,28 +80,31 @@
     <t>Page title</t>
   </si>
   <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Sales Commission Agents</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>No matching records found</t>
+  </si>
+  <si>
+    <t>PO 45445, NY, 27756</t>
+  </si>
+  <si>
+    <t>Edit Role</t>
+  </si>
+  <si>
     <t>Login - Demo POS</t>
   </si>
   <si>
-    <t>Users</t>
-  </si>
-  <si>
-    <t>Roles</t>
-  </si>
-  <si>
-    <t>Sales Commission Agents</t>
-  </si>
-  <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>No matching records found</t>
-  </si>
-  <si>
-    <t>PO 45445, NY, 27756</t>
-  </si>
-  <si>
-    <t>Edit Role</t>
+    <t>Boney Jacobb</t>
   </si>
 </sst>
 </file>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,10 +458,10 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -472,13 +472,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -527,7 +527,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -537,7 +537,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -560,7 +560,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -570,7 +570,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -587,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C83D66-1701-4D42-A84B-CBD203CDC9C8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -598,7 +598,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -635,17 +635,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -716,12 +716,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
